--- a/biology/Médecine/Dit_da_jow/Dit_da_jow.xlsx
+++ b/biology/Médecine/Dit_da_jow/Dit_da_jow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dit da jow ou Jow est un liniment utilisé dans les arts martiaux pour traiter les blessures externes telles les ecchymoses ou les muscles douloureux. Certaines huiles auraient aussi des propriétés curatives au niveau de l'arthrite et des douleurs articulaires.
 Le mélange, à base d'alcool ou d'huile, consiste essentiellement en une infusion d'herbes médicinales. Les recettes, d'abord transmises oralement de génération en génération, étaient souvent gardées secrètes. Le traitement consiste à masser la zone affectée avec le produit. Son usage est déconseillé chez les femmes enceintes. La plupart des mélanges ne doivent pas être ingérés.
